--- a/man/modelParametersExplained.xlsx
+++ b/man/modelParametersExplained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\MadFates_Madingley\man\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F763392-C882-427D-9974-93907E8E109B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D0F4A-A8A5-4BD0-A558-933D537C58E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" xr2:uid="{788E0CDC-41FC-473C-9721-DD4DD5D7B769}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="179">
   <si>
     <t>params</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Referenc eMass</t>
-  </si>
-  <si>
     <t>6e-06</t>
   </si>
   <si>
@@ -541,6 +538,51 @@
   </si>
   <si>
     <t>The proportion of body mass loss at which the cohort will try to disperse every time during a time step</t>
+  </si>
+  <si>
+    <t>The scalar of the relationship between handling time and the function of predator and prey masses for terrestrial animals</t>
+  </si>
+  <si>
+    <t>The exponent applied to predator mass in the handling time relationship for terrestrial animals</t>
+  </si>
+  <si>
+    <t>The scalar of the relationship between handling time and the function of herbivore mass for the terrestrial realm</t>
+  </si>
+  <si>
+    <t>The exponent applied to herbivore mass in the handling time relationship for the terrestrial realm</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Reference mass of plant matter for calculating handling times</t>
+  </si>
+  <si>
+    <t>The maximum kill rate for a predator of 1 g on prey of an optimal size</t>
+  </si>
+  <si>
+    <t>The exponent on body mass in the relationship between body mass and attack rate</t>
+  </si>
+  <si>
+    <t>The standard deviation in attack rates around the optimal prey to predator mass ratio</t>
+  </si>
+  <si>
+    <t>The maximum herbivory rate for a herbivore of 1 g</t>
+  </si>
+  <si>
+    <t>Scalar relating the fraction of NPP devoted to structural tissue to the total amount of NPP</t>
+  </si>
+  <si>
+    <t>Coefficient for the quadratic term in the function relating fractional allocation in evergreen leaf matter to fraction of the year experiencing frost</t>
+  </si>
+  <si>
+    <t>Coefficient for the linear term in the function relating fractional allocation in evergreen leaf matter to fraction of the year experiencing frost</t>
+  </si>
+  <si>
+    <t>Intercept in the function relating fractional allocation in evergreen leaf matter to fraction of the year experiencing frost</t>
+  </si>
+  <si>
+    <t>The slope of the relationship between temperature and evergreen leaf mortality rate</t>
   </si>
 </sst>
 </file>
@@ -946,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710A40BE-87B5-4771-B128-1D30CA1D7312}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,7 +1168,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,7 +1185,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,7 +1201,9 @@
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1174,7 +1218,9 @@
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1189,7 +1235,9 @@
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1204,7 +1252,9 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1217,7 +1267,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1226,15 +1276,17 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1247,9 +1299,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1262,49 +1316,53 @@
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -1313,28 +1371,30 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>32</v>
@@ -1343,931 +1403,945 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E86" s="1"/>
     </row>
